--- a/4_testing/ava/2024.02.01/TestResult-FacePix-Test0.25-2024.02.01.xlsx
+++ b/4_testing/ava/2024.02.01/TestResult-FacePix-Test0.25-2024.02.01.xlsx
@@ -327,16 +327,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.21640000000000001</c:v>
+                  <c:v>0.21179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.22589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2019</c:v>
+                  <c:v>0.19769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>9.2999999999999992E-3</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,16 +398,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.21659999999999999</c:v>
+                  <c:v>0.2122</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.22550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2029</c:v>
+                  <c:v>0.1986</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>8.8999999999999999E-3</c:v>
+                  <c:v>1.11E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,16 +469,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8.6699999999999999E-2</c:v>
+                  <c:v>0.1022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1295</c:v>
+                  <c:v>0.15279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.0100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.81E-2</c:v>
+                  <c:v>3.73E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,16 +540,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8.6900000000000005E-2</c:v>
+                  <c:v>0.1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.15329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.0100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.8299999999999999E-2</c:v>
+                  <c:v>3.7400000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,16 +611,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.2167</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2036</c:v>
+                  <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>1.17E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,16 +682,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8.6699999999999999E-2</c:v>
+                  <c:v>0.1021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12939999999999999</c:v>
+                  <c:v>0.15279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>3.7199999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,16 +755,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.2165</c:v>
+                  <c:v>0.21160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.22620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20219999999999999</c:v>
+                  <c:v>0.1971</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>9.2999999999999992E-3</c:v>
+                  <c:v>1.1900000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2056,25 +2056,53 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="2">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.1986</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.1991</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1971</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="2">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.1973</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -2237,35 +2265,35 @@
       </c>
       <c r="B24" s="1">
         <f>ROUND(AVERAGE(B3:B21),4)</f>
-        <v>0.21640000000000001</v>
+        <v>0.21179999999999999</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:G24" si="0">ROUND(AVERAGE(C3:C21),4)</f>
-        <v>0.21659999999999999</v>
+        <v>0.2122</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>8.6699999999999999E-2</v>
+        <v>0.1022</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>8.6900000000000005E-2</v>
+        <v>0.1024</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.2167</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>8.6699999999999999E-2</v>
+        <v>0.1021</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ref="H24" si="1">ROUND(AVERAGE(H3:H21),4)</f>
-        <v>0.2165</v>
+        <v>0.21160000000000001</v>
       </c>
       <c r="I24" s="3">
         <f>MAX(B24:H24)</f>
-        <v>0.2167</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2282,11 +2310,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
-        <v>0.1295</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
@@ -2294,7 +2322,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>0.12939999999999999</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
@@ -2311,11 +2339,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ref="B26:H26" si="3">ROUND(MIN(B3:B21),4)</f>
-        <v>0.2019</v>
+        <v>0.19769999999999999</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
-        <v>0.2029</v>
+        <v>0.1986</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="3"/>
@@ -2327,7 +2355,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>0.2036</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="3"/>
@@ -2335,7 +2363,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="3"/>
-        <v>0.20219999999999999</v>
+        <v>0.1971</v>
       </c>
       <c r="I26" s="4">
         <f>MIN(B26:H26)</f>
@@ -2348,35 +2376,35 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:G27" si="4">ROUND(_xlfn.STDEV.S(B3:B21),4)</f>
-        <v>9.2999999999999992E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
-        <v>8.8999999999999999E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="4"/>
-        <v>2.81E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="4"/>
-        <v>2.8299999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
-        <v>8.9999999999999993E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>2.8000000000000001E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" ref="H27" si="5">ROUND(_xlfn.STDEV.S(H3:H21),4)</f>
-        <v>9.2999999999999992E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I27" s="3">
         <f>MIN(B27:H27)</f>
-        <v>8.8999999999999999E-3</v>
+        <v>1.11E-2</v>
       </c>
     </row>
   </sheetData>
